--- a/data/Juan LimonT2-2024.xlsx
+++ b/data/Juan LimonT2-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -480,6 +483,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -533,8 +537,6 @@
       <c r="F10" s="11" t="n">
         <v>8.560566769999999</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -1036,6 +1038,7 @@
         <v>0.00140631</v>
       </c>
     </row>
+    <row r="37"/>
     <row r="38">
       <c r="D38" s="6" t="inlineStr">
         <is>
@@ -1061,7 +1064,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1074,6 +1077,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1081,6 +1086,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1088,6 +1094,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1405,6 +1412,7 @@
         <v>7.041999999999999e-05</v>
       </c>
     </row>
+    <row r="32"/>
     <row r="33">
       <c r="C33" s="6" t="inlineStr">
         <is>
@@ -1430,7 +1438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1443,6 +1451,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1450,6 +1460,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1457,6 +1468,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1540,6 +1552,7 @@
         <v>0.00100175</v>
       </c>
     </row>
+    <row r="14"/>
     <row r="15">
       <c r="C15" s="6" t="inlineStr">
         <is>
